--- a/Таблица с тест-кейсами по требованию.xlsx
+++ b/Таблица с тест-кейсами по требованию.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Юлия\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Юлия\Documents\GitHub\MyFirst_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="141">
   <si>
     <t>Провалено</t>
   </si>
@@ -605,12 +605,18 @@
   <si>
     <t xml:space="preserve">1. Необходим номер действующей карты лояльности </t>
   </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -739,6 +745,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1106,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1251,28 +1265,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1284,9 +1276,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1321,6 +1310,40 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,14 +1566,14 @@
   <dimension ref="A1:AL1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="55" customWidth="1"/>
     <col min="4" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
@@ -1570,20 +1593,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="3">
         <f>COUNTIF(J$8:J$51,"failed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="3">
@@ -1627,20 +1650,20 @@
       <c r="AL1" s="5"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="6">
         <f>COUNTIF(J$8:J$52,"passed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="6">
@@ -1684,13 +1707,13 @@
       <c r="AL2" s="5"/>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1726,18 +1749,20 @@
       <c r="AL3" s="5"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="81">
+        <v>44658</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="5"/>
       <c r="M4" s="2"/>
@@ -1768,13 +1793,13 @@
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1820,42 +1845,42 @@
       <c r="AL5" s="5"/>
     </row>
     <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="77" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="80"/>
+      <c r="G6" s="77" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="66" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="66" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="66" t="s">
         <v>15</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="50" t="s">
+      <c r="P6" s="66" t="s">
         <v>15</v>
       </c>
       <c r="Q6" s="11"/>
-      <c r="R6" s="50" t="s">
+      <c r="R6" s="66" t="s">
         <v>15</v>
       </c>
       <c r="S6" s="11"/>
@@ -1880,9 +1905,9 @@
       <c r="AL6" s="5"/>
     </row>
     <row r="7" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="68"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
@@ -1892,20 +1917,20 @@
       <c r="F7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="15"/>
-      <c r="J7" s="51"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="51"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="51"/>
+      <c r="N7" s="67"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="51"/>
+      <c r="P7" s="67"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="51"/>
+      <c r="R7" s="67"/>
       <c r="S7" s="15"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -1931,13 +1956,13 @@
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="66"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="19" t="s">
         <v>130</v>
       </c>
@@ -1947,7 +1972,9 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
       <c r="M8" s="21"/>
@@ -1982,10 +2009,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="23"/>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="18" t="s">
         <v>129</v>
       </c>
@@ -1995,7 +2022,9 @@
       <c r="G9" s="24"/>
       <c r="H9" s="20"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
+      <c r="J9" s="82" t="s">
+        <v>140</v>
+      </c>
       <c r="K9" s="21"/>
       <c r="L9" s="22"/>
       <c r="M9" s="21"/>
@@ -2030,10 +2059,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="23"/>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="75"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="18" t="s">
         <v>132</v>
       </c>
@@ -2043,7 +2072,9 @@
       <c r="G10" s="24"/>
       <c r="H10" s="20"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
+      <c r="J10" s="82" t="s">
+        <v>140</v>
+      </c>
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
       <c r="M10" s="21"/>
@@ -2078,20 +2109,22 @@
         <v>4</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="76"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="62" t="s">
         <v>136</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="20"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
+      <c r="J11" s="83" t="s">
+        <v>140</v>
+      </c>
       <c r="K11" s="30"/>
       <c r="L11" s="31"/>
       <c r="M11" s="30"/>
@@ -2128,13 +2161,13 @@
       <c r="B12" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="65" t="s">
         <v>130</v>
       </c>
       <c r="F12" s="24" t="s">
@@ -2178,7 +2211,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="23"/>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="54" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -2328,7 +2361,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="35"/>
-      <c r="C16" s="71"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="24"/>
@@ -2654,7 +2687,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="43"/>
-      <c r="C23" s="71"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="24"/>
@@ -2794,7 +2827,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="43"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="24"/>
@@ -3110,7 +3143,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="43"/>
-      <c r="C33" s="71"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="24"/>
@@ -3346,7 +3379,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="43"/>
-      <c r="C38" s="72"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
